--- a/FEA/HW4/1_convergence_studies.xlsx
+++ b/FEA/HW4/1_convergence_studies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FEA\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\mechanical-systems-design\FEA\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73166016-4BFB-4341-B98C-8B1AC6EC8459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AF6DC-DB72-4137-9533-F0F67E8931AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13140" xr2:uid="{E2C4A54D-9411-40FB-9654-90946268E9B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2C4A54D-9411-40FB-9654-90946268E9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>element #</t>
-  </si>
-  <si>
-    <t>y_displacement</t>
   </si>
   <si>
     <t>RED BC fixed</t>
   </si>
   <si>
     <t>S, Mises</t>
+  </si>
+  <si>
+    <t>max_displacement</t>
+  </si>
+  <si>
+    <t>problem 2 convergence</t>
+  </si>
+  <si>
+    <t>node #</t>
+  </si>
+  <si>
+    <t>Displacement Magnitude</t>
   </si>
 </sst>
 </file>
@@ -98,6 +107,3827 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mises Stress </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>vs node count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S, Mises</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E10-4FF1-A242-E396749D99AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131864111"/>
+        <c:axId val="131857871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131864111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131857871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="131857871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131864111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max displacement vs node count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max_displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6569999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9140000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3549999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3580000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94EA-4E2F-A39B-A4040EBA14A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144850783"/>
+        <c:axId val="144851199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144850783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144851199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144851199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144850783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Problem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2, element count vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mises stress</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S, Mises</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.323999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FCF-4061-A338-7A45D106EE86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="145819391"/>
+        <c:axId val="145821055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="145819391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145821055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145821055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145819391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Problem 2 element</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> count vs </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement Magnitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Displacement Magnitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3400000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10349999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-018A-4B13-8028-26FDD8E162E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144847455"/>
+        <c:axId val="144837887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144847455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144837887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144837887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144847455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A23895D-FA55-43D0-9031-FCA433547D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE760676-0F60-45E4-8124-C17F65E00A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D303BE3-4E61-49EB-981F-AB38D6A4AE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1147762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32307759-94CA-4F35-A55B-E7A6785B6AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,22 +4227,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFB0842-96AA-4AF9-9D0E-27F2ED2E8D7E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -420,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +4300,90 @@
         <v>4.3580000000000001E-2</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>54.67</v>
+      </c>
+      <c r="C26">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>96</v>
+      </c>
+      <c r="B27">
+        <v>63.09</v>
+      </c>
+      <c r="C27">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>9.1899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>383</v>
+      </c>
+      <c r="B29">
+        <v>67.23</v>
+      </c>
+      <c r="C29">
+        <v>9.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>666</v>
+      </c>
+      <c r="B30">
+        <v>75.33</v>
+      </c>
+      <c r="C30">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>784</v>
+      </c>
+      <c r="B31">
+        <v>76.323999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.10349999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>